--- a/medicine/Pharmacie/Tafénoquine/Tafénoquine.xlsx
+++ b/medicine/Pharmacie/Tafénoquine/Tafénoquine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taf%C3%A9noquine</t>
+          <t>Tafénoquine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tafenoquine est une molécule de type 8-aminoquinoline en cours de test comme médicament contre le paludisme.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taf%C3%A9noquine</t>
+          <t>Tafénoquine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donné par voie orale, sa demi-vie d'élimination atteint deux semaines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donné par voie orale, sa demi-vie d'élimination atteint deux semaines.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taf%C3%A9noquine</t>
+          <t>Tafénoquine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En association avec de la chloroquine, il est efficace en curatif pour le Plasmodium vivax[3] à 600 mg[4], ou même à 300 mg en une prise[5], avec une bonne tolérance[6]. Il en évite la récidive (due à la persistance du parasite dans le foie) dans près de deux tiers des cas[7]. 
-En préventif, à la dose de 200 mg par semaine, il s'avère être d'une efficacité comparable à la méfloquine[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En association avec de la chloroquine, il est efficace en curatif pour le Plasmodium vivax à 600 mg, ou même à 300 mg en une prise, avec une bonne tolérance. Il en évite la récidive (due à la persistance du parasite dans le foie) dans près de deux tiers des cas. 
+En préventif, à la dose de 200 mg par semaine, il s'avère être d'une efficacité comparable à la méfloquine.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Taf%C3%A9noquine</t>
+          <t>Tafénoquine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament provoque une hémolyse chez les patients porteurs d'un déficit en glucose-6-phosphate déshydrogénase, même hétérozygotes[9], contre-indiquant son emploi chez ces derniers.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament provoque une hémolyse chez les patients porteurs d'un déficit en glucose-6-phosphate déshydrogénase, même hétérozygotes, contre-indiquant son emploi chez ces derniers.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Taf%C3%A9noquine</t>
+          <t>Tafénoquine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La tafénoquine contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement c'est le racémique, c'est-à-dire le mélange 1:1 des formes (R) et (S) qui est utilisé :
 </t>
